--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhc/Documents/PhD/projects/TSAnomalyGenerationClean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{278E1D70-F7A8-4E48-996B-61A9B12BC9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD2A704-9BB3-8940-8D4B-B6317F991200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{6255811A-F79E-1340-B8B6-2E0EFBF2D21F}"/>
   </bookViews>
@@ -35,11 +35,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>pretrained normal quality</t>
+  </si>
+  <si>
+    <t>Predictive mean: 0.02450771779671424 std: 0.0030012828567123934</t>
+  </si>
+  <si>
+    <t>Discriminative mean: 0.4639916706711517 std: 0.02223700881718382</t>
+  </si>
+  <si>
+    <t>C-GATS</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -66,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +430,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44335B3E-468D-174E-A412-643EE3BFB846}">
-  <dimension ref="A1"/>
+  <dimension ref="F7:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="34.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>